--- a/Second part/yatesRes.xlsx
+++ b/Second part/yatesRes.xlsx
@@ -14,27 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>S</t>
+    <t>effects L</t>
   </si>
   <si>
-    <t>E</t>
+    <t>max L</t>
   </si>
   <si>
-    <t>I</t>
+    <t>effects I</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>max I</t>
   </si>
 </sst>
 </file>
@@ -392,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,222 +402,141 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5740382.75</v>
+        <v>2118180.911901292</v>
       </c>
       <c r="C2">
-        <v>1597500.837120962</v>
+        <v>2602277.048749246</v>
       </c>
       <c r="D2">
-        <v>5152877.789574889</v>
+        <v>4163780.663359495</v>
       </c>
       <c r="E2">
-        <v>4592259.445098352</v>
-      </c>
-      <c r="F2">
-        <v>1148064.861274588</v>
-      </c>
-      <c r="G2">
-        <v>2870191.875000001</v>
-      </c>
-      <c r="H2">
-        <v>2984964.020475781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3297004.768776661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11480765.5</v>
+        <v>1411979.116893401</v>
       </c>
       <c r="C3">
-        <v>3195001.674241924</v>
+        <v>5204548.957101176</v>
       </c>
       <c r="D3">
-        <v>10305755.57914978</v>
+        <v>2868218.091801059</v>
       </c>
       <c r="E3">
-        <v>9184518.890196703</v>
-      </c>
-      <c r="F3">
-        <v>2296129.722549176</v>
-      </c>
-      <c r="G3">
-        <v>5740383.750000002</v>
-      </c>
-      <c r="H3">
-        <v>1492482.01023789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>6854125.394112743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11480765.5</v>
+        <v>-3507525.380997838</v>
       </c>
       <c r="C4">
-        <v>673675.7383900635</v>
+        <v>244920.1928234585</v>
       </c>
       <c r="D4">
-        <v>6138011.585648514</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9007283.426190801</v>
-      </c>
-      <c r="F4">
-        <v>2251820.8565477</v>
-      </c>
-      <c r="G4">
-        <v>5705257.598811929</v>
-      </c>
-      <c r="H4">
-        <v>5854035.191581722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3297004.768776661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11480765.5</v>
+        <v>-1169057.978503139</v>
       </c>
       <c r="C5">
-        <v>673675.7383900635</v>
+        <v>489839.9018448165</v>
       </c>
       <c r="D5">
-        <v>6138011.585648514</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9007283.426190801</v>
-      </c>
-      <c r="F5">
-        <v>2251820.8565477</v>
-      </c>
-      <c r="G5">
-        <v>5705257.598811929</v>
-      </c>
-      <c r="H5">
-        <v>1463508.797895431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>6854125.394112743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3826922.5</v>
+        <v>-34431.22645676415</v>
       </c>
       <c r="C6">
-        <v>1473597.385220539</v>
+        <v>2560573.060654636</v>
       </c>
       <c r="D6">
-        <v>3542620.022237606</v>
+        <v>-1823568.836170414</v>
       </c>
       <c r="E6">
-        <v>3061502.498591788</v>
-      </c>
-      <c r="F6">
-        <v>765375.624647947</v>
-      </c>
-      <c r="G6">
-        <v>-5740383.750000002</v>
-      </c>
-      <c r="H6">
-        <v>1989973.175959383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>2162338.46614127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3826922.5</v>
+        <v>-11616.69179324235</v>
       </c>
       <c r="C7">
-        <v>1473597.385220539</v>
+        <v>5120375.343095787</v>
       </c>
       <c r="D7">
-        <v>3542620.022237606</v>
+        <v>-688902.5335350242</v>
       </c>
       <c r="E7">
-        <v>3061502.498591788</v>
-      </c>
-      <c r="F7">
-        <v>765375.624647947</v>
-      </c>
-      <c r="G7">
-        <v>-5740383.750000002</v>
-      </c>
-      <c r="H7">
-        <v>497493.2939898457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4341654.024407305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3826922.5</v>
+        <v>28507.57459323481</v>
       </c>
       <c r="C8">
-        <v>228865.6690280953</v>
+        <v>240995.1115910246</v>
       </c>
       <c r="D8">
-        <v>2029520.226681664</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3001613.13241786</v>
-      </c>
-      <c r="F8">
-        <v>750403.2831044651</v>
-      </c>
-      <c r="G8">
-        <v>-5705257.598811929</v>
-      </c>
-      <c r="H8">
-        <v>1950753.668607174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>2162338.46614127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3826922.5</v>
+        <v>9618.121162146912</v>
       </c>
       <c r="C9">
-        <v>228865.6690280953</v>
+        <v>481917.6793501917</v>
       </c>
       <c r="D9">
-        <v>2029520.226681664</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3001613.13241786</v>
-      </c>
-      <c r="F9">
-        <v>750403.2831044651</v>
-      </c>
-      <c r="G9">
-        <v>-5705257.598811929</v>
-      </c>
-      <c r="H9">
-        <v>487688.4171517935</v>
+        <v>4341654.024407305</v>
       </c>
     </row>
   </sheetData>

--- a/Second part/yatesRes.xlsx
+++ b/Second part/yatesRes.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2118180.911901292</v>
+        <v>2032203.764687516</v>
       </c>
       <c r="C2">
-        <v>2602277.048749246</v>
+        <v>2539343.060268726</v>
       </c>
       <c r="D2">
-        <v>4163780.663359495</v>
+        <v>2215542.938706584</v>
       </c>
       <c r="E2">
-        <v>3297004.768776661</v>
+        <v>2195908.925010874</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1411979.116893401</v>
+        <v>-104199.1975284058</v>
       </c>
       <c r="C3">
-        <v>5204548.957101176</v>
+        <v>2414761.340527109</v>
       </c>
       <c r="D3">
-        <v>2868218.091801059</v>
+        <v>-2216210.22947525</v>
       </c>
       <c r="E3">
-        <v>6854125.394112743</v>
+        <v>733986.9299886375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3507525.380997838</v>
+        <v>-3365154.621095457</v>
       </c>
       <c r="C4">
-        <v>244920.1928234585</v>
+        <v>238996.9939076448</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3297004.768776661</v>
+        <v>2195908.925010874</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1169057.978503139</v>
+        <v>86272.45386760478</v>
       </c>
       <c r="C5">
-        <v>489839.9018448165</v>
+        <v>227271.6555790221</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6854125.394112743</v>
+        <v>733986.9299886375</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-34431.22645676415</v>
+        <v>1354221.004233781</v>
       </c>
       <c r="C6">
-        <v>2560573.060654636</v>
+        <v>5080690.741597774</v>
       </c>
       <c r="D6">
-        <v>-1823568.836170414</v>
+        <v>1501190.022413655</v>
       </c>
       <c r="E6">
-        <v>2162338.46614127</v>
+        <v>4451387.181877543</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-11616.69179324235</v>
+        <v>-36045.66849328619</v>
       </c>
       <c r="C7">
-        <v>5120375.343095787</v>
+        <v>4824329.158547369</v>
       </c>
       <c r="D7">
-        <v>-688902.5335350242</v>
+        <v>-754288.2344530134</v>
       </c>
       <c r="E7">
-        <v>4341654.024407305</v>
+        <v>1480888.71794928</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28507.57459323481</v>
+        <v>-1121236.745440873</v>
       </c>
       <c r="C8">
-        <v>240995.1115910246</v>
+        <v>478182.6580327316</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2162338.46614127</v>
+        <v>4451387.181877543</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9618.121162146912</v>
+        <v>29844.26316110795</v>
       </c>
       <c r="C9">
-        <v>481917.6793501917</v>
+        <v>454054.5090397524</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4341654.024407305</v>
+        <v>1480888.71794928</v>
       </c>
     </row>
   </sheetData>

--- a/Second part/yatesRes.xlsx
+++ b/Second part/yatesRes.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2032203.764687516</v>
+        <v>2119048.009642353</v>
       </c>
       <c r="C2">
-        <v>2539343.060268726</v>
+        <v>2602307.299969151</v>
       </c>
       <c r="D2">
-        <v>2215542.938706584</v>
+        <v>4163780.663359495</v>
       </c>
       <c r="E2">
-        <v>2195908.925010874</v>
+        <v>3297004.768776661</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-104199.1975284058</v>
+        <v>-32749.49066179644</v>
       </c>
       <c r="C3">
-        <v>2414761.340527109</v>
+        <v>2562397.528415503</v>
       </c>
       <c r="D3">
-        <v>-2216210.22947525</v>
+        <v>-1823568.836170414</v>
       </c>
       <c r="E3">
-        <v>733986.9299886375</v>
+        <v>2162338.46614127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3365154.621095457</v>
+        <v>-3508961.220267983</v>
       </c>
       <c r="C4">
-        <v>238996.9939076448</v>
+        <v>244923.0399970966</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2195908.925010874</v>
+        <v>3297004.768776661</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86272.45386760478</v>
+        <v>27115.16968772395</v>
       </c>
       <c r="C5">
-        <v>227271.6555790221</v>
+        <v>241166.826203812</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>733986.9299886375</v>
+        <v>2162338.46614127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1354221.004233781</v>
+        <v>1412698.671991926</v>
       </c>
       <c r="C6">
-        <v>5080690.741597774</v>
+        <v>5204614.59993306</v>
       </c>
       <c r="D6">
-        <v>1501190.022413655</v>
+        <v>2868218.091801059</v>
       </c>
       <c r="E6">
-        <v>4451387.181877543</v>
+        <v>6854125.394112743</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-36045.66849328619</v>
+        <v>-10916.49798832986</v>
       </c>
       <c r="C7">
-        <v>4824329.158547369</v>
+        <v>5124795.050787668</v>
       </c>
       <c r="D7">
-        <v>-754288.2344530134</v>
+        <v>-688902.5335350242</v>
       </c>
       <c r="E7">
-        <v>1480888.71794928</v>
+        <v>4341654.024407305</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1121236.745440873</v>
+        <v>-1169653.73917611</v>
       </c>
       <c r="C8">
-        <v>478182.6580327316</v>
+        <v>489846.0799936998</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4451387.181877543</v>
+        <v>6854125.394112743</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29844.26316110795</v>
+        <v>9038.390807541895</v>
       </c>
       <c r="C9">
-        <v>454054.5090397524</v>
+        <v>482333.6518388393</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1480888.71794928</v>
+        <v>4341654.024407305</v>
       </c>
     </row>
   </sheetData>
